--- a/ゼミ用/02基本設計/03.DB設計/テーブル定義書.xlsx
+++ b/ゼミ用/02基本設計/03.DB設計/テーブル定義書.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="8"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル定義書" sheetId="1" state="visible" r:id="rId2"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="926" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="936" uniqueCount="133">
   <si>
     <t xml:space="preserve">DB名</t>
   </si>
@@ -1316,8 +1316,8 @@
   </sheetPr>
   <dimension ref="A1:AA1077"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A58" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K57" activeCellId="0" sqref="K57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.78125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -33049,7 +33049,7 @@
       <selection pane="topLeft" activeCell="H26" activeCellId="0" sqref="H26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.57421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.53125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.4"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="4.99"/>
@@ -33387,13 +33387,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="B1:O17"/>
+  <dimension ref="B1:O18"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="O15" activeCellId="0" sqref="O15"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="P6" activeCellId="0" sqref="P6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.57421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.53125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.4"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="4.99"/>
@@ -33551,19 +33551,19 @@
         <v>opus_name VARCHAR(100) NOT NULL ,</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="3" t="n">
-        <f aca="false">ROW()-3</f>
+        <f aca="false">B5+1</f>
         <v>3</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>19</v>
+        <v>93</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>20</v>
+        <v>94</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>23</v>
+        <v>95</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>22</v>
@@ -33571,160 +33571,197 @@
       <c r="G6" s="15"/>
       <c r="H6" s="15"/>
       <c r="I6" s="15"/>
-      <c r="J6" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="K6" s="3"/>
-      <c r="L6" s="3" t="n">
-        <v>10</v>
-      </c>
-      <c r="M6" s="6" t="s">
-        <v>24</v>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" s="3"/>
+      <c r="M6" s="5" t="s">
+        <v>96</v>
       </c>
       <c r="O6" s="0" t="str">
         <f aca="false">D6&amp;" "&amp;E6&amp;IF(L6 = "","","("&amp;L6&amp;")")&amp;IF(G6 = "〇"," UNSIGNED","")&amp;IF(H6 = "〇"," ZEROFILL","")&amp;IF(F6 = "〇"," NOT NULL","")&amp;IF(K6 = "",""," DEFAULT "&amp;K6)&amp;IF(I6 = "",""," UNIQUE ")&amp;" ,"</f>
-        <v>user_id VARCHAR(10) NOT NULL ,</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>opus_flg TINYINT NOT NULL DEFAULT 0 ,</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="3" t="n">
         <f aca="false">ROW()-3</f>
         <v>4</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="G7" s="15" t="s">
-        <v>22</v>
-      </c>
+      <c r="G7" s="15"/>
       <c r="H7" s="15"/>
       <c r="I7" s="15"/>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L7" s="3"/>
-      <c r="M7" s="3"/>
+      <c r="J7" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="M7" s="6" t="s">
+        <v>24</v>
+      </c>
       <c r="O7" s="0" t="str">
         <f aca="false">D7&amp;" "&amp;E7&amp;IF(L7 = "","","("&amp;L7&amp;")")&amp;IF(G7 = "〇"," UNSIGNED","")&amp;IF(H7 = "〇"," ZEROFILL","")&amp;IF(F7 = "〇"," NOT NULL","")&amp;IF(K7 = "",""," DEFAULT "&amp;K7)&amp;IF(I7 = "",""," UNIQUE ")&amp;" ,"</f>
+        <v>user_id VARCHAR(10) NOT NULL ,</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B8" s="3" t="n">
+        <f aca="false">ROW()-3</f>
+        <v>5</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G8" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="H8" s="15"/>
+      <c r="I8" s="15"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="O8" s="0" t="str">
+        <f aca="false">D8&amp;" "&amp;E8&amp;IF(L8 = "","","("&amp;L8&amp;")")&amp;IF(G8 = "〇"," UNSIGNED","")&amp;IF(H8 = "〇"," ZEROFILL","")&amp;IF(F8 = "〇"," NOT NULL","")&amp;IF(K8 = "",""," DEFAULT "&amp;K8)&amp;IF(I8 = "",""," UNIQUE ")&amp;" ,"</f>
         <v>version SMALLINT UNSIGNED NOT NULL DEFAULT 0 ,</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C9" s="0" t="s">
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C10" s="0" t="s">
         <v>111</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C10" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C11" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C12" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D12" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="O11" s="0" t="str">
-        <f aca="false">"PRIMARY KEY("&amp;D11&amp;")"</f>
+      <c r="O12" s="0" t="str">
+        <f aca="false">"PRIMARY KEY("&amp;D12&amp;")"</f>
         <v>PRIMARY KEY(opus_id)</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C13" s="0" t="s">
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C14" s="0" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C14" s="8" t="s">
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C15" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="8" t="s">
+      <c r="D15" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E14" s="16" t="s">
+      <c r="E15" s="16" t="s">
         <v>113</v>
       </c>
-      <c r="F14" s="17" t="s">
+      <c r="F15" s="17" t="s">
         <v>114</v>
       </c>
-      <c r="G14" s="17"/>
-      <c r="H14" s="17"/>
-      <c r="I14" s="17"/>
-      <c r="J14" s="17"/>
-      <c r="K14" s="18" t="s">
+      <c r="G15" s="17"/>
+      <c r="H15" s="17"/>
+      <c r="I15" s="17"/>
+      <c r="J15" s="17"/>
+      <c r="K15" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="L14" s="18"/>
-      <c r="M14" s="8" t="s">
+      <c r="L15" s="18"/>
+      <c r="M15" s="8" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C15" s="3" t="s">
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C16" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="D16" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E15" s="8" t="s">
+      <c r="E16" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="F15" s="18" t="s">
+      <c r="F16" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="G15" s="18"/>
-      <c r="H15" s="18"/>
-      <c r="I15" s="18"/>
-      <c r="J15" s="18"/>
-      <c r="K15" s="20" t="s">
+      <c r="G16" s="18"/>
+      <c r="H16" s="18"/>
+      <c r="I16" s="18"/>
+      <c r="J16" s="18"/>
+      <c r="K16" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="L15" s="20"/>
-      <c r="M15" s="3" t="s">
+      <c r="L16" s="20"/>
+      <c r="M16" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="O15" s="0" t="str">
-        <f aca="false">IF(C15 = "","",",FOREIGN KEY("&amp;D15&amp;") REFERENCES "&amp;F15&amp;"("&amp;M15&amp;")")</f>
+      <c r="O16" s="0" t="str">
+        <f aca="false">IF(C16 = "","",",FOREIGN KEY("&amp;D16&amp;") REFERENCES "&amp;F16&amp;"("&amp;M16&amp;")")</f>
         <v>,FOREIGN KEY(user_id) REFERENCES cor_user(user_id)</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B17" s="19" t="s">
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B18" s="19" t="s">
         <v>115</v>
       </c>
-      <c r="O17" s="0" t="s">
+      <c r="O18" s="0" t="s">
         <v>116</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="F14:J14"/>
-    <mergeCell ref="K14:L14"/>
     <mergeCell ref="F15:J15"/>
     <mergeCell ref="K15:L15"/>
+    <mergeCell ref="F16:J16"/>
+    <mergeCell ref="K16:L16"/>
   </mergeCells>
-  <dataValidations count="2">
-    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="E4:E7" type="list">
+  <dataValidations count="3">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="E4:E5 E7:E8" type="list">
       <formula1>マスタ!$B$3:$B$8</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="G4:I7" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="G4:I8" type="list">
       <formula1>"〇"</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="E6" type="list">
+      <formula1>マスタ!$B$3:$B$8</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
@@ -33749,7 +33786,7 @@
       <selection pane="topLeft" activeCell="O16" activeCellId="0" sqref="O16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.57421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.53125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.4"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="4.99"/>
@@ -34171,7 +34208,7 @@
       <selection pane="topLeft" activeCell="O16" activeCellId="0" sqref="O16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.57421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.53125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.4"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="4.99"/>
@@ -34593,13 +34630,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="B1:O22"/>
+  <dimension ref="B1:O23"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="O18" activeCellId="0" sqref="O18"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="H1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="O6" activeCellId="0" sqref="O6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.57421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.53125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.4"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="4.99"/>
@@ -34757,7 +34794,7 @@
         <v>group_name VARCHAR(100) NOT NULL ,</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="3" t="n">
         <f aca="false">ROW()-3</f>
         <v>3</v>
@@ -34788,16 +34825,16 @@
         <v>group_info VARCHAR(1200) ,</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="3" t="n">
-        <f aca="false">ROW()-3</f>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B7" s="8" t="n">
+        <f aca="false">B6+1</f>
         <v>4</v>
       </c>
-      <c r="C7" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>47</v>
+      <c r="C7" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>87</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>23</v>
@@ -34808,19 +34845,17 @@
       <c r="G7" s="15"/>
       <c r="H7" s="15"/>
       <c r="I7" s="15"/>
-      <c r="J7" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="K7" s="3"/>
-      <c r="L7" s="3" t="n">
-        <v>8</v>
-      </c>
-      <c r="M7" s="6" t="s">
-        <v>49</v>
+      <c r="J7" s="8"/>
+      <c r="K7" s="8"/>
+      <c r="L7" s="8" t="n">
+        <v>100</v>
+      </c>
+      <c r="M7" s="5" t="s">
+        <v>88</v>
       </c>
       <c r="O7" s="0" t="str">
         <f aca="false">D7&amp;" "&amp;E7&amp;IF(L7 = "","","("&amp;L7&amp;")")&amp;IF(G7 = "〇"," UNSIGNED","")&amp;IF(H7 = "〇"," ZEROFILL","")&amp;IF(F7 = "〇"," NOT NULL","")&amp;IF(K7 = "",""," DEFAULT "&amp;K7)&amp;IF(I7 = "",""," UNIQUE ")&amp;" ,"</f>
-        <v>opus_id VARCHAR(8) NOT NULL ,</v>
+        <v>group_color VARCHAR(100) NOT NULL ,</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34829,10 +34864,10 @@
         <v>5</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>23</v>
@@ -34851,11 +34886,11 @@
         <v>8</v>
       </c>
       <c r="M8" s="6" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="O8" s="0" t="str">
         <f aca="false">D8&amp;" "&amp;E8&amp;IF(L8 = "","","("&amp;L8&amp;")")&amp;IF(G8 = "〇"," UNSIGNED","")&amp;IF(H8 = "〇"," ZEROFILL","")&amp;IF(F8 = "〇"," NOT NULL","")&amp;IF(K8 = "",""," DEFAULT "&amp;K8)&amp;IF(I8 = "",""," UNIQUE ")&amp;" ,"</f>
-        <v>time_id VARCHAR(8) NOT NULL ,</v>
+        <v>opus_id VARCHAR(8) NOT NULL ,</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34864,10 +34899,10 @@
         <v>6</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>20</v>
+        <v>51</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>23</v>
@@ -34883,217 +34918,256 @@
       </c>
       <c r="K9" s="3"/>
       <c r="L9" s="3" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="M9" s="6" t="s">
-        <v>24</v>
+        <v>52</v>
       </c>
       <c r="O9" s="0" t="str">
         <f aca="false">D9&amp;" "&amp;E9&amp;IF(L9 = "","","("&amp;L9&amp;")")&amp;IF(G9 = "〇"," UNSIGNED","")&amp;IF(H9 = "〇"," ZEROFILL","")&amp;IF(F9 = "〇"," NOT NULL","")&amp;IF(K9 = "",""," DEFAULT "&amp;K9)&amp;IF(I9 = "",""," UNIQUE ")&amp;" ,"</f>
-        <v>user_id VARCHAR(10) NOT NULL ,</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>time_id VARCHAR(8) NOT NULL ,</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="3" t="n">
         <f aca="false">ROW()-3</f>
         <v>7</v>
       </c>
-      <c r="C10" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>30</v>
+      <c r="C10" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>20</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="F10" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="F10" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="G10" s="15" t="s">
-        <v>22</v>
-      </c>
+      <c r="G10" s="15"/>
       <c r="H10" s="15"/>
       <c r="I10" s="15"/>
-      <c r="J10" s="8"/>
-      <c r="K10" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L10" s="8"/>
-      <c r="M10" s="8"/>
+      <c r="J10" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="M10" s="6" t="s">
+        <v>24</v>
+      </c>
       <c r="O10" s="0" t="str">
         <f aca="false">D10&amp;" "&amp;E10&amp;IF(L10 = "","","("&amp;L10&amp;")")&amp;IF(G10 = "〇"," UNSIGNED","")&amp;IF(H10 = "〇"," ZEROFILL","")&amp;IF(F10 = "〇"," NOT NULL","")&amp;IF(K10 = "",""," DEFAULT "&amp;K10)&amp;IF(I10 = "",""," UNIQUE ")&amp;" ,"</f>
+        <v>user_id VARCHAR(10) NOT NULL ,</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B11" s="3" t="n">
+        <f aca="false">ROW()-3</f>
+        <v>8</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="G11" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="H11" s="15"/>
+      <c r="I11" s="15"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" s="8"/>
+      <c r="M11" s="8"/>
+      <c r="O11" s="0" t="str">
+        <f aca="false">D11&amp;" "&amp;E11&amp;IF(L11 = "","","("&amp;L11&amp;")")&amp;IF(G11 = "〇"," UNSIGNED","")&amp;IF(H11 = "〇"," ZEROFILL","")&amp;IF(F11 = "〇"," NOT NULL","")&amp;IF(K11 = "",""," DEFAULT "&amp;K11)&amp;IF(I11 = "",""," UNIQUE ")&amp;" ,"</f>
         <v>version SMALLINT UNSIGNED NOT NULL DEFAULT 0 ,</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C12" s="0" t="s">
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C13" s="0" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C13" s="3" t="s">
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="D14" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C14" s="8" t="s">
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C15" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="D14" s="8" t="s">
+      <c r="D15" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="O14" s="0" t="str">
-        <f aca="false">"PRIMARY KEY("&amp;D14&amp;")"</f>
+      <c r="O15" s="0" t="str">
+        <f aca="false">"PRIMARY KEY("&amp;D15&amp;")"</f>
         <v>PRIMARY KEY(group_id)</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C16" s="0" t="s">
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C17" s="0" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C17" s="8" t="s">
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C18" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D17" s="8" t="s">
+      <c r="D18" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E17" s="16" t="s">
+      <c r="E18" s="16" t="s">
         <v>113</v>
       </c>
-      <c r="F17" s="17" t="s">
+      <c r="F18" s="17" t="s">
         <v>114</v>
       </c>
-      <c r="G17" s="17"/>
-      <c r="H17" s="17"/>
-      <c r="I17" s="17"/>
-      <c r="J17" s="17"/>
-      <c r="K17" s="18" t="s">
+      <c r="G18" s="17"/>
+      <c r="H18" s="17"/>
+      <c r="I18" s="17"/>
+      <c r="J18" s="17"/>
+      <c r="K18" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="L17" s="18"/>
-      <c r="M17" s="8" t="s">
+      <c r="L18" s="18"/>
+      <c r="M18" s="8" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C18" s="3" t="s">
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C19" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="D18" s="3" t="s">
+      <c r="D19" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="E18" s="8" t="s">
+      <c r="E19" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="F18" s="18" t="s">
+      <c r="F19" s="18" t="s">
         <v>90</v>
-      </c>
-      <c r="G18" s="18"/>
-      <c r="H18" s="18"/>
-      <c r="I18" s="18"/>
-      <c r="J18" s="18"/>
-      <c r="K18" s="21" t="s">
-        <v>46</v>
-      </c>
-      <c r="L18" s="21"/>
-      <c r="M18" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="O18" s="0" t="str">
-        <f aca="false">IF(C18 = "","",",FOREIGN KEY("&amp;D18&amp;") REFERENCES "&amp;F18&amp;"("&amp;M18&amp;")")</f>
-        <v>,FOREIGN KEY(opus_id) REFERENCES opus(opus_id)</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C19" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="D19" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="E19" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="F19" s="18" t="s">
-        <v>57</v>
       </c>
       <c r="G19" s="18"/>
       <c r="H19" s="18"/>
       <c r="I19" s="18"/>
       <c r="J19" s="18"/>
-      <c r="K19" s="18" t="s">
-        <v>50</v>
-      </c>
-      <c r="L19" s="18"/>
-      <c r="M19" s="8" t="s">
-        <v>51</v>
+      <c r="K19" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="L19" s="21"/>
+      <c r="M19" s="3" t="s">
+        <v>47</v>
       </c>
       <c r="O19" s="0" t="str">
         <f aca="false">IF(C19 = "","",",FOREIGN KEY("&amp;D19&amp;") REFERENCES "&amp;F19&amp;"("&amp;M19&amp;")")</f>
-        <v>,FOREIGN KEY(time_id) REFERENCES time_mst(time_id)</v>
+        <v>,FOREIGN KEY(opus_id) REFERENCES opus(opus_id)</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C20" s="8" t="s">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>20</v>
+        <v>51</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>6</v>
+        <v>56</v>
       </c>
       <c r="F20" s="18" t="s">
-        <v>7</v>
+        <v>57</v>
       </c>
       <c r="G20" s="18"/>
       <c r="H20" s="18"/>
       <c r="I20" s="18"/>
       <c r="J20" s="18"/>
       <c r="K20" s="18" t="s">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="L20" s="18"/>
       <c r="M20" s="8" t="s">
-        <v>20</v>
+        <v>51</v>
       </c>
       <c r="O20" s="0" t="str">
         <f aca="false">IF(C20 = "","",",FOREIGN KEY("&amp;D20&amp;") REFERENCES "&amp;F20&amp;"("&amp;M20&amp;")")</f>
+        <v>,FOREIGN KEY(time_id) REFERENCES time_mst(time_id)</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C21" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E21" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F21" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="G21" s="18"/>
+      <c r="H21" s="18"/>
+      <c r="I21" s="18"/>
+      <c r="J21" s="18"/>
+      <c r="K21" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="L21" s="18"/>
+      <c r="M21" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="O21" s="0" t="str">
+        <f aca="false">IF(C21 = "","",",FOREIGN KEY("&amp;D21&amp;") REFERENCES "&amp;F21&amp;"("&amp;M21&amp;")")</f>
         <v>,FOREIGN KEY(user_id) REFERENCES cor_user(user_id)</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B22" s="19" t="s">
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B23" s="19" t="s">
         <v>115</v>
       </c>
-      <c r="O22" s="0" t="s">
+      <c r="O23" s="0" t="s">
         <v>116</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="F17:J17"/>
-    <mergeCell ref="K17:L17"/>
     <mergeCell ref="F18:J18"/>
     <mergeCell ref="K18:L18"/>
     <mergeCell ref="F19:J19"/>
     <mergeCell ref="K19:L19"/>
     <mergeCell ref="F20:J20"/>
     <mergeCell ref="K20:L20"/>
+    <mergeCell ref="F21:J21"/>
+    <mergeCell ref="K21:L21"/>
   </mergeCells>
-  <dataValidations count="2">
-    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="E4:E10" type="list">
+  <dataValidations count="3">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="E4:E6 E8:E11" type="list">
       <formula1>マスタ!$B$3:$B$8</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="G4:I10" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="G4:I11" type="list">
       <formula1>"〇"</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="E7" type="list">
+      <formula1>マスタ!$B$3:$B$8</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
@@ -35118,7 +35192,7 @@
       <selection pane="topLeft" activeCell="O1" activeCellId="0" sqref="O1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.57421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.53125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.4"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="4.99"/>
@@ -35736,11 +35810,11 @@
   </sheetPr>
   <dimension ref="B1:O27"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="O1" activeCellId="0" sqref="O1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.57421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.53125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.4"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="4.99"/>
@@ -36426,13 +36500,13 @@
   </sheetPr>
   <dimension ref="B2:C8"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.4921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="4.47265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="12.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="12.53"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="118.73"/>
   </cols>
   <sheetData>

--- a/ゼミ用/02基本設計/03.DB設計/テーブル定義書.xlsx
+++ b/ゼミ用/02基本設計/03.DB設計/テーブル定義書.xlsx
@@ -5,17 +5,17 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル定義書" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="cor_user" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="opus" sheetId="3" state="visible" r:id="rId4"/>
-    <sheet name="rel_mst" sheetId="4" state="visible" r:id="rId5"/>
-    <sheet name="time_mst" sheetId="5" state="visible" r:id="rId6"/>
-    <sheet name="group_mst" sheetId="6" state="visible" r:id="rId7"/>
-    <sheet name="acter" sheetId="7" state="visible" r:id="rId8"/>
-    <sheet name="rel" sheetId="8" state="visible" r:id="rId9"/>
+    <sheet name="rel_mst" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="time_mst" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="group_mst" sheetId="5" state="visible" r:id="rId6"/>
+    <sheet name="acter" sheetId="6" state="visible" r:id="rId7"/>
+    <sheet name="rel" sheetId="7" state="visible" r:id="rId8"/>
+    <sheet name="common_mst" sheetId="8" state="visible" r:id="rId9"/>
     <sheet name="マスタ" sheetId="9" state="visible" r:id="rId10"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="936" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="919" uniqueCount="134">
   <si>
     <t xml:space="preserve">DB名</t>
   </si>
@@ -980,6 +980,9 @@
     <t xml:space="preserve">acter_img</t>
   </si>
   <si>
+    <t xml:space="preserve">汎用マスタテーブル</t>
+  </si>
+  <si>
     <t xml:space="preserve">型</t>
   </si>
   <si>
@@ -1221,15 +1224,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1316,8 +1319,8 @@
   </sheetPr>
   <dimension ref="A1:AA1077"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K57" activeCellId="0" sqref="K57"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E61" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K73" activeCellId="0" sqref="K73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.78125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -33045,11 +33048,11 @@
   </sheetPr>
   <dimension ref="B1:O17"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="H26" activeCellId="0" sqref="H26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.53125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.51171875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.4"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="4.99"/>
@@ -33387,406 +33390,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="B1:O18"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="P6" activeCellId="0" sqref="P6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="12.53125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.4"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="4.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="16.91"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="14.74"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="18.41"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="4.95"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="8.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="6.18"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="9" style="0" width="9.74"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="53.59"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="4.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="39.66"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="O1" s="0" t="str">
-        <f aca="false">"/* "&amp;C2&amp;" */"</f>
-        <v>/* 作品マスタ */</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2" s="2"/>
-      <c r="C2" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-      <c r="O2" s="0" t="str">
-        <f aca="false">"DROP TABLE IF EXISTS "&amp;D2&amp;";"</f>
-        <v>DROP TABLE IF EXISTS opus;</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="L3" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="M3" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="O3" s="0" t="str">
-        <f aca="false">"CREATE TABLE "&amp;D2&amp;"("</f>
-        <v>CREATE TABLE opus(</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="3" t="n">
-        <f aca="false">ROW()-3</f>
-        <v>1</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15"/>
-      <c r="I4" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3" t="n">
-        <v>8</v>
-      </c>
-      <c r="M4" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="O4" s="0" t="str">
-        <f aca="false">D4&amp;" "&amp;E4&amp;IF(L4 = "","","("&amp;L4&amp;")")&amp;IF(G4 = "〇"," UNSIGNED","")&amp;IF(H4 = "〇"," ZEROFILL","")&amp;IF(F4 = "〇"," NOT NULL","")&amp;IF(K4 = "",""," DEFAULT "&amp;K4)&amp;IF(I4 = "",""," UNIQUE ")&amp;" ,"</f>
-        <v>opus_id VARCHAR(8) NOT NULL UNIQUE  ,</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="3" t="n">
-        <f aca="false">ROW()-3</f>
-        <v>2</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G5" s="15"/>
-      <c r="H5" s="15"/>
-      <c r="I5" s="15"/>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3"/>
-      <c r="L5" s="3" t="n">
-        <v>100</v>
-      </c>
-      <c r="M5" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="O5" s="0" t="str">
-        <f aca="false">D5&amp;" "&amp;E5&amp;IF(L5 = "","","("&amp;L5&amp;")")&amp;IF(G5 = "〇"," UNSIGNED","")&amp;IF(H5 = "〇"," ZEROFILL","")&amp;IF(F5 = "〇"," NOT NULL","")&amp;IF(K5 = "",""," DEFAULT "&amp;K5)&amp;IF(I5 = "",""," UNIQUE ")&amp;" ,"</f>
-        <v>opus_name VARCHAR(100) NOT NULL ,</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="3" t="n">
-        <f aca="false">B5+1</f>
-        <v>3</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G6" s="15"/>
-      <c r="H6" s="15"/>
-      <c r="I6" s="15"/>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L6" s="3"/>
-      <c r="M6" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="O6" s="0" t="str">
-        <f aca="false">D6&amp;" "&amp;E6&amp;IF(L6 = "","","("&amp;L6&amp;")")&amp;IF(G6 = "〇"," UNSIGNED","")&amp;IF(H6 = "〇"," ZEROFILL","")&amp;IF(F6 = "〇"," NOT NULL","")&amp;IF(K6 = "",""," DEFAULT "&amp;K6)&amp;IF(I6 = "",""," UNIQUE ")&amp;" ,"</f>
-        <v>opus_flg TINYINT NOT NULL DEFAULT 0 ,</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="3" t="n">
-        <f aca="false">ROW()-3</f>
-        <v>4</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G7" s="15"/>
-      <c r="H7" s="15"/>
-      <c r="I7" s="15"/>
-      <c r="J7" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="K7" s="3"/>
-      <c r="L7" s="3" t="n">
-        <v>10</v>
-      </c>
-      <c r="M7" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="O7" s="0" t="str">
-        <f aca="false">D7&amp;" "&amp;E7&amp;IF(L7 = "","","("&amp;L7&amp;")")&amp;IF(G7 = "〇"," UNSIGNED","")&amp;IF(H7 = "〇"," ZEROFILL","")&amp;IF(F7 = "〇"," NOT NULL","")&amp;IF(K7 = "",""," DEFAULT "&amp;K7)&amp;IF(I7 = "",""," UNIQUE ")&amp;" ,"</f>
-        <v>user_id VARCHAR(10) NOT NULL ,</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="3" t="n">
-        <f aca="false">ROW()-3</f>
-        <v>5</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G8" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="H8" s="15"/>
-      <c r="I8" s="15"/>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" s="3"/>
-      <c r="M8" s="3"/>
-      <c r="O8" s="0" t="str">
-        <f aca="false">D8&amp;" "&amp;E8&amp;IF(L8 = "","","("&amp;L8&amp;")")&amp;IF(G8 = "〇"," UNSIGNED","")&amp;IF(H8 = "〇"," ZEROFILL","")&amp;IF(F8 = "〇"," NOT NULL","")&amp;IF(K8 = "",""," DEFAULT "&amp;K8)&amp;IF(I8 = "",""," UNIQUE ")&amp;" ,"</f>
-        <v>version SMALLINT UNSIGNED NOT NULL DEFAULT 0 ,</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C10" s="0" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C11" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C12" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="O12" s="0" t="str">
-        <f aca="false">"PRIMARY KEY("&amp;D12&amp;")"</f>
-        <v>PRIMARY KEY(opus_id)</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C14" s="0" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C15" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E15" s="16" t="s">
-        <v>113</v>
-      </c>
-      <c r="F15" s="17" t="s">
-        <v>114</v>
-      </c>
-      <c r="G15" s="17"/>
-      <c r="H15" s="17"/>
-      <c r="I15" s="17"/>
-      <c r="J15" s="17"/>
-      <c r="K15" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="L15" s="18"/>
-      <c r="M15" s="8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C16" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E16" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="F16" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="G16" s="18"/>
-      <c r="H16" s="18"/>
-      <c r="I16" s="18"/>
-      <c r="J16" s="18"/>
-      <c r="K16" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="L16" s="20"/>
-      <c r="M16" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="O16" s="0" t="str">
-        <f aca="false">IF(C16 = "","",",FOREIGN KEY("&amp;D16&amp;") REFERENCES "&amp;F16&amp;"("&amp;M16&amp;")")</f>
-        <v>,FOREIGN KEY(user_id) REFERENCES cor_user(user_id)</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B18" s="19" t="s">
-        <v>115</v>
-      </c>
-      <c r="O18" s="0" t="s">
-        <v>116</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="F15:J15"/>
-    <mergeCell ref="K15:L15"/>
-    <mergeCell ref="F16:J16"/>
-    <mergeCell ref="K16:L16"/>
-  </mergeCells>
-  <dataValidations count="3">
-    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="E4:E5 E7:E8" type="list">
-      <formula1>マスタ!$B$3:$B$8</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="G4:I8" type="list">
-      <formula1>"〇"</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="E6" type="list">
-      <formula1>マスタ!$B$3:$B$8</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-  </dataValidations>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,標準"&amp;12&amp;Kffffff&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,標準"&amp;12&amp;Kffffffページ &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
   <dimension ref="B1:O19"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="O16" activeCellId="0" sqref="O16"/>
+      <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.53125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.51171875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.4"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="4.99"/>
@@ -33817,7 +33427,7 @@
         <v>75</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>8</v>
+        <v>76</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
@@ -34115,10 +33725,10 @@
       <c r="H16" s="18"/>
       <c r="I16" s="18"/>
       <c r="J16" s="18"/>
-      <c r="K16" s="21" t="s">
+      <c r="K16" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="L16" s="21"/>
+      <c r="L16" s="20"/>
       <c r="M16" s="8" t="s">
         <v>47</v>
       </c>
@@ -34197,7 +33807,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -34205,10 +33815,10 @@
   <dimension ref="B1:O19"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="O16" activeCellId="0" sqref="O16"/>
+      <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.53125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.51171875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.4"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="4.99"/>
@@ -34239,7 +33849,7 @@
         <v>57</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>8</v>
+        <v>58</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
@@ -34541,10 +34151,10 @@
       <c r="H16" s="18"/>
       <c r="I16" s="18"/>
       <c r="J16" s="18"/>
-      <c r="K16" s="21" t="s">
+      <c r="K16" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="L16" s="21"/>
+      <c r="L16" s="20"/>
       <c r="M16" s="3" t="s">
         <v>47</v>
       </c>
@@ -34625,18 +34235,18 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="B1:O23"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="H1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="O6" activeCellId="0" sqref="O6"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.53125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.51171875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.4"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="4.99"/>
@@ -34667,7 +34277,7 @@
         <v>80</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>8</v>
+        <v>81</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
@@ -35068,10 +34678,10 @@
       <c r="H19" s="18"/>
       <c r="I19" s="18"/>
       <c r="J19" s="18"/>
-      <c r="K19" s="21" t="s">
+      <c r="K19" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="L19" s="21"/>
+      <c r="L19" s="20"/>
       <c r="M19" s="3" t="s">
         <v>47</v>
       </c>
@@ -35181,7 +34791,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -35189,10 +34799,10 @@
   <dimension ref="B1:O25"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="O1" activeCellId="0" sqref="O1"/>
+      <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.53125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.51171875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.4"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="4.99"/>
@@ -35223,7 +34833,7 @@
         <v>118</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
@@ -35803,7 +35413,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -35811,10 +35421,10 @@
   <dimension ref="B1:O27"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="O1" activeCellId="0" sqref="O1"/>
+      <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.53125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.51171875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.4"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="4.99"/>
@@ -35845,7 +35455,7 @@
         <v>62</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>8</v>
+        <v>63</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
@@ -36285,10 +35895,10 @@
       <c r="H20" s="18"/>
       <c r="I20" s="18"/>
       <c r="J20" s="18"/>
-      <c r="K20" s="21" t="s">
+      <c r="K20" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="L20" s="21"/>
+      <c r="L20" s="20"/>
       <c r="M20" s="3" t="s">
         <v>68</v>
       </c>
@@ -36314,10 +35924,10 @@
       <c r="H21" s="18"/>
       <c r="I21" s="18"/>
       <c r="J21" s="18"/>
-      <c r="K21" s="22" t="s">
+      <c r="K21" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="L21" s="22"/>
+      <c r="L21" s="21"/>
       <c r="M21" s="3" t="s">
         <v>119</v>
       </c>
@@ -36343,10 +35953,10 @@
       <c r="H22" s="18"/>
       <c r="I22" s="18"/>
       <c r="J22" s="18"/>
-      <c r="K22" s="21" t="s">
+      <c r="K22" s="20" t="s">
         <v>72</v>
       </c>
-      <c r="L22" s="21"/>
+      <c r="L22" s="20"/>
       <c r="M22" s="3" t="s">
         <v>119</v>
       </c>
@@ -36372,10 +35982,10 @@
       <c r="H23" s="18"/>
       <c r="I23" s="18"/>
       <c r="J23" s="18"/>
-      <c r="K23" s="21" t="s">
+      <c r="K23" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="L23" s="21"/>
+      <c r="L23" s="20"/>
       <c r="M23" s="3" t="s">
         <v>47</v>
       </c>
@@ -36401,10 +36011,10 @@
       <c r="H24" s="18"/>
       <c r="I24" s="18"/>
       <c r="J24" s="18"/>
-      <c r="K24" s="21" t="s">
+      <c r="K24" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="L24" s="21"/>
+      <c r="L24" s="20"/>
       <c r="M24" s="3" t="s">
         <v>51</v>
       </c>
@@ -36430,10 +36040,10 @@
       <c r="H25" s="18"/>
       <c r="I25" s="18"/>
       <c r="J25" s="18"/>
-      <c r="K25" s="21" t="s">
+      <c r="K25" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="L25" s="21"/>
+      <c r="L25" s="20"/>
       <c r="M25" s="3" t="s">
         <v>20</v>
       </c>
@@ -36493,6 +36103,343 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="B1:O18"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="P18" activeCellId="0" sqref="P18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.51171875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.4"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="4.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="16.91"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="14.74"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="18.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="4.95"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="8.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="6.18"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="9" style="0" width="9.74"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="53.59"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="4.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="39.66"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O1" s="0" t="str">
+        <f aca="false">"/* "&amp;C2&amp;" */"</f>
+        <v>/* 汎用マスタ */</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2" s="2"/>
+      <c r="C2" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="O2" s="0" t="str">
+        <f aca="false">"DROP TABLE IF EXISTS "&amp;D2&amp;";"</f>
+        <v>DROP TABLE IF EXISTS common_mst;</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="O3" s="0" t="str">
+        <f aca="false">"CREATE TABLE "&amp;D2&amp;"("</f>
+        <v>CREATE TABLE common_mst(</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="K4" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" s="3"/>
+      <c r="M4" s="6"/>
+      <c r="O4" s="0" t="str">
+        <f aca="false">D4&amp;" "&amp;E4&amp;IF(L4 = "","","("&amp;L4&amp;")")&amp;IF(G4 = "〇"," UNSIGNED","")&amp;IF(H4 = "〇"," ZEROFILL","")&amp;IF(F4 = "〇"," NOT NULL","")&amp;IF(K4 = "",""," DEFAULT "&amp;K4)&amp;IF(I4 = "",""," UNIQUE ")&amp;" ,"</f>
+        <v>common_id MEDIUMINT NOT NULL DEFAULT 0 UNIQUE  ,</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B5" s="3" t="n">
+        <f aca="false">B4+1</f>
+        <v>2</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G5" s="15"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="15"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="8" t="n">
+        <v>1200</v>
+      </c>
+      <c r="M5" s="5"/>
+      <c r="O5" s="0" t="str">
+        <f aca="false">D5&amp;" "&amp;E5&amp;IF(L5 = "","","("&amp;L5&amp;")")&amp;IF(G5 = "〇"," UNSIGNED","")&amp;IF(H5 = "〇"," ZEROFILL","")&amp;IF(F5 = "〇"," NOT NULL","")&amp;IF(K5 = "",""," DEFAULT "&amp;K5)&amp;IF(I5 = "",""," UNIQUE ")&amp;" ,"</f>
+        <v>common_key VARCHAR(1200) NOT NULL ,</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B6" s="3" t="n">
+        <f aca="false">B5+1</f>
+        <v>3</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G6" s="15"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="15"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="8" t="n">
+        <v>1200</v>
+      </c>
+      <c r="M6" s="6"/>
+      <c r="O6" s="0" t="str">
+        <f aca="false">D6&amp;" "&amp;E6&amp;IF(L6 = "","","("&amp;L6&amp;")")&amp;IF(G6 = "〇"," UNSIGNED","")&amp;IF(H6 = "〇"," ZEROFILL","")&amp;IF(F6 = "〇"," NOT NULL","")&amp;IF(K6 = "",""," DEFAULT "&amp;K6)&amp;IF(I6 = "",""," UNIQUE ")&amp;" ,"</f>
+        <v>common_value VARCHAR(1200) NOT NULL ,</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B7" s="8" t="n">
+        <f aca="false">B6+1</f>
+        <v>4</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F7" s="8"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="15"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="8"/>
+      <c r="L7" s="8" t="n">
+        <v>1200</v>
+      </c>
+      <c r="M7" s="5"/>
+      <c r="O7" s="0" t="str">
+        <f aca="false">D7&amp;" "&amp;E7&amp;IF(L7 = "","","("&amp;L7&amp;")")&amp;IF(G7 = "〇"," UNSIGNED","")&amp;IF(H7 = "〇"," ZEROFILL","")&amp;IF(F7 = "〇"," NOT NULL","")&amp;IF(K7 = "",""," DEFAULT "&amp;K7)&amp;IF(I7 = "",""," UNIQUE ")&amp;" ,"</f>
+        <v>common_info VARCHAR(1200) ,</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C9" s="0" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C10" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C11" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O12" s="0" t="str">
+        <f aca="false">"PRIMARY KEY("&amp;D11&amp;")"</f>
+        <v>PRIMARY KEY(common_id)</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C13" s="0" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C14" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" s="16" t="s">
+        <v>113</v>
+      </c>
+      <c r="F14" s="17" t="s">
+        <v>114</v>
+      </c>
+      <c r="G14" s="17"/>
+      <c r="H14" s="17"/>
+      <c r="I14" s="17"/>
+      <c r="J14" s="17"/>
+      <c r="K14" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="L14" s="18"/>
+      <c r="M14" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="18"/>
+      <c r="G15" s="18"/>
+      <c r="H15" s="18"/>
+      <c r="I15" s="18"/>
+      <c r="J15" s="18"/>
+      <c r="K15" s="22"/>
+      <c r="L15" s="22"/>
+      <c r="M15" s="3"/>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O16" s="0" t="str">
+        <f aca="false">IF(C15 = "","",",FOREIGN KEY("&amp;D15&amp;") REFERENCES "&amp;F15&amp;"("&amp;M15&amp;")")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B17" s="19" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O18" s="0" t="s">
+        <v>116</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="F14:J14"/>
+    <mergeCell ref="K14:L14"/>
+    <mergeCell ref="F15:J15"/>
+    <mergeCell ref="K15:L15"/>
+  </mergeCells>
+  <dataValidations count="2">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="G4:I7" type="list">
+      <formula1>"〇"</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="E4:E7" type="list">
+      <formula1>マスタ!$B$3:$B$8</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+  </dataValidations>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,標準"&amp;12&amp;Kffffff&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,標準"&amp;12&amp;Kffffffページ &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
@@ -36504,7 +36451,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.47265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="4.46484375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="12.53"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="118.73"/>
@@ -36512,7 +36459,7 @@
   <sheetData>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="0" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36520,7 +36467,7 @@
         <v>95</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36528,7 +36475,7 @@
         <v>31</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36536,23 +36483,23 @@
         <v>101</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="0" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="23" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36560,7 +36507,7 @@
         <v>23</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
   </sheetData>

--- a/ゼミ用/02基本設計/03.DB設計/テーブル定義書.xlsx
+++ b/ゼミ用/02基本設計/03.DB設計/テーブル定義書.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="7"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル定義書" sheetId="1" state="visible" r:id="rId2"/>
@@ -1319,8 +1319,8 @@
   </sheetPr>
   <dimension ref="A1:AA1077"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E61" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K73" activeCellId="0" sqref="K73"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.78125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -33048,11 +33048,11 @@
   </sheetPr>
   <dimension ref="B1:O17"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H26" activeCellId="0" sqref="H26"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.51171875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.484375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.4"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="4.99"/>
@@ -33392,11 +33392,11 @@
   </sheetPr>
   <dimension ref="B1:O19"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.51171875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.484375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.4"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="4.99"/>
@@ -33814,11 +33814,11 @@
   </sheetPr>
   <dimension ref="B1:O19"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.51171875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.484375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.4"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="4.99"/>
@@ -34216,12 +34216,12 @@
     <mergeCell ref="K17:L17"/>
   </mergeCells>
   <dataValidations count="2">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="G4:I8" type="list">
+      <formula1>"〇"</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
     <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="E4:E8" type="list">
       <formula1>マスタ!$B$3:$B$8</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="G4:I8" type="list">
-      <formula1>"〇"</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
@@ -34242,11 +34242,11 @@
   </sheetPr>
   <dimension ref="B1:O23"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.51171875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.484375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.4"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="4.99"/>
@@ -34768,12 +34768,12 @@
     <mergeCell ref="K21:L21"/>
   </mergeCells>
   <dataValidations count="3">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="G4:I11" type="list">
+      <formula1>"〇"</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
     <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="E4:E6 E8:E11" type="list">
       <formula1>マスタ!$B$3:$B$8</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="G4:I11" type="list">
-      <formula1>"〇"</formula1>
       <formula2>0</formula2>
     </dataValidation>
     <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="E7" type="list">
@@ -34798,11 +34798,11 @@
   </sheetPr>
   <dimension ref="B1:O25"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.51171875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.484375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.4"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="4.99"/>
@@ -35394,12 +35394,12 @@
     <mergeCell ref="K23:L23"/>
   </mergeCells>
   <dataValidations count="2">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="G4:I12" type="list">
+      <formula1>"〇"</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
     <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="E4:E12" type="list">
       <formula1>マスタ!$B$3:$B$8</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="G4:I12" type="list">
-      <formula1>"〇"</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
@@ -35420,11 +35420,11 @@
   </sheetPr>
   <dimension ref="B1:O27"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.51171875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.484375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.4"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="4.99"/>
@@ -36084,12 +36084,12 @@
     <mergeCell ref="K25:L25"/>
   </mergeCells>
   <dataValidations count="2">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="G4:I12" type="list">
+      <formula1>"〇"</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
     <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="E4:E12" type="list">
       <formula1>マスタ!$B$3:$B$8</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="G4:I12" type="list">
-      <formula1>"〇"</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
@@ -36110,11 +36110,11 @@
   </sheetPr>
   <dimension ref="B1:O18"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="P18" activeCellId="0" sqref="P18"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="M18" activeCellId="0" sqref="M18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.51171875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.484375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.4"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="4.99"/>
@@ -36447,7 +36447,7 @@
   </sheetPr>
   <dimension ref="B2:C8"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>

--- a/ゼミ用/02基本設計/03.DB設計/テーブル定義書.xlsx
+++ b/ゼミ用/02基本設計/03.DB設計/テーブル定義書.xlsx
@@ -1319,8 +1319,8 @@
   </sheetPr>
   <dimension ref="A1:AA1077"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I17" activeCellId="0" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.78125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1981,9 +1981,7 @@
         <v>23</v>
       </c>
       <c r="H17" s="8"/>
-      <c r="I17" s="8" t="n">
-        <v>2000</v>
-      </c>
+      <c r="I17" s="8"/>
       <c r="J17" s="8"/>
       <c r="K17" s="8" t="s">
         <v>45</v>
@@ -33052,7 +33050,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.484375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.46484375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.4"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="4.99"/>
@@ -33396,7 +33394,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.484375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.46484375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.4"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="4.99"/>
@@ -33818,7 +33816,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.484375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.46484375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.4"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="4.99"/>
@@ -34246,7 +34244,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.484375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.46484375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.4"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="4.99"/>
@@ -34802,7 +34800,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.484375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.46484375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.4"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="4.99"/>
@@ -35424,7 +35422,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.484375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.46484375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.4"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="4.99"/>
@@ -36114,7 +36112,7 @@
       <selection pane="topLeft" activeCell="M18" activeCellId="0" sqref="M18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.484375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.46484375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.4"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="4.99"/>
